--- a/Step_1_Process_Yearbook_Data/02_Digitized_data/河南_2010_仅小麦产量.xlsx
+++ b/Step_1_Process_Yearbook_Data/02_Digitized_data/河南_2010_仅小麦产量.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangj\Desktop\统计年鉴\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangj\Desktop\Agricultural_production\Step_1_Process_Yearbook_Data\02_Digitized_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3249F1B2-6249-4B61-B961-60E7D0F4DAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D2F7D0-3B98-4458-B33B-DECAD9BFAD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9465" yWindow="3045" windowWidth="15855" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
-    <t>产量</t>
-  </si>
-  <si>
     <t>地区</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t>新蔡县</t>
+  </si>
+  <si>
+    <t>小麦产量</t>
   </si>
 </sst>
 </file>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A109" sqref="A2:A109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -840,15 +840,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3">
         <v>156127</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3">
         <v>79213</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3">
         <v>165797</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>100457</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4">
         <v>148220</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3">
         <v>67605</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3">
         <v>383033</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5">
         <v>236613</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3">
         <v>359975</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3">
         <v>369951</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4">
         <v>312622</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3">
         <v>122031</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3">
         <v>91644</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="4">
         <v>25670</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3">
         <v>99097</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4">
         <v>80638</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4">
         <v>157760</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4">
         <v>133973</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="4">
         <v>162842</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="4">
         <v>124005</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3">
         <v>122711</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3">
         <v>289271</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="4">
         <v>100041</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4">
         <v>159115</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="5">
         <v>77446</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="4">
         <v>222533</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="3">
         <v>301323</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3">
         <v>215785</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="3">
         <v>822092</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="4">
         <v>316940</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="5">
         <v>122010</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3">
         <v>378348</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="34" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="6">
         <v>142646</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="3">
         <v>134886</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="4">
         <v>144048</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="3">
         <v>380506</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="4">
         <v>293124</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="3">
         <v>376453</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="4">
         <v>361337</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="4">
         <v>184068</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="4">
         <v>267089</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="3">
         <v>118379</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="4">
         <v>117719</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="4">
         <v>294777</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" s="4">
         <v>169870</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" s="4">
         <v>166963</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="4">
         <v>160370</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="4">
         <v>345023</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" s="4">
         <v>250664</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" s="4">
         <v>166942</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" s="4">
         <v>105127</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" s="5">
         <v>513593</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="3">
         <v>371341</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="4">
         <v>303392</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="4">
         <v>299655</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57" s="4">
         <v>260329</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="4">
         <v>271665</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="3">
         <v>261656</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" s="4">
         <v>306066</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" s="4">
         <v>90694</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" s="4">
         <v>52564</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="4">
         <v>55096</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="4">
         <v>3195</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="5">
         <v>105000</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="3">
         <v>67837</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" s="3">
         <v>318513</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="68" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="7">
         <v>36802</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="8">
         <v>273540</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="3">
         <v>136192</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71" s="4">
         <v>129638</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="3">
         <v>302790</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="3">
         <v>771307</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="3">
         <v>345870</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="5">
         <v>87370</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76" s="3">
         <v>761317</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="3">
         <v>466300</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B78" s="3">
         <v>392618</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="5">
         <v>288600</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="3">
         <v>424469</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="3">
         <v>528592</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="3">
         <v>527027</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="3">
         <v>701030</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="3">
         <v>107879</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="3">
         <v>78812</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86" s="3">
         <v>3935</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" s="3">
         <v>48839</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="3">
         <v>167710</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89" s="4">
         <v>146339</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="3">
         <v>250918</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91" s="5">
         <v>443375</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="3">
         <v>419544</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="3">
         <v>462048</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="3">
         <v>535401</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="3">
         <v>451700</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="3">
         <v>551666</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B97" s="3">
         <v>565354</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="3">
         <v>728989</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="3">
         <v>507698</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="5">
         <v>495033</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="3">
         <v>451669</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="3">
         <v>586926</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="3">
         <v>460122</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="3">
         <v>577403</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="3">
         <v>300057</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B106" s="3">
         <v>368181</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="3">
         <v>457786</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="4">
         <v>319555</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="109" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="7">
         <v>502614</v>
